--- a/data/BaseRefAtivosNacionais.xlsx
+++ b/data/BaseRefAtivosNacionais.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelgandra/Desktop/Projetos /TesteQuant/QuantumSpreadHunters---Quantamental/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284550B3-10C9-EC4B-8720-ADCF09D51813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Faça uma lista de TODOS os pote" sheetId="1" r:id="rId4"/>
+    <sheet name="Faça uma lista de TODOS os pote" sheetId="1" r:id="rId1"/>
+    <sheet name="Faça uma lista de TODOS os  (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
   <si>
     <t>Empresa</t>
   </si>
@@ -46,9 +69,6 @@
     <t>NYSE</t>
   </si>
   <si>
-    <t>https://br.investing.com/equities/apple-computer-inc-new</t>
-  </si>
-  <si>
     <t>Petrobras</t>
   </si>
   <si>
@@ -413,27 +433,153 @@
   </si>
   <si>
     <t>CINT</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/vale-on-n1-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/petrobras-pn-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/itauunibanco-pn-edj-n1-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/bradesco-pn-n1-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/ambev-pn-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/santander-br-unt-ed-n2-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/bmfbovespa-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/gerdau-pn-n1-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/suzano-papel-celul-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/embraer-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/azul-sa-pref-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/gol-pn-es-n2-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/sid-nacional-on-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/sabesp-on-ej-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/cemig-pn-n1-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/eletrobras-pnb-n1-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/ultrapar-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/cosan-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/brf-foods-on-ej-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/jbs-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/marfrig-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/natura-on-ej-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/telef-brasil-on-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/tim-part-s-a-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/magaz-luiza-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/lojas-renner-on-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/weg-on-ej-nm-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/xp-inc-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/stoneco-ltd-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/nu-holdings-ltd-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/pagseguro-digital-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/arco-platform-ltd-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/vtex-commerce-cloud-solutions-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/ciandt-inc-class-a-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/suzano-papel-celulose-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/sabesp-on</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/eletrobras-on-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/arco-platform-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/vtex-news</t>
+  </si>
+  <si>
+    <t>https://br.investing.com/equities/ci-t-news</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,39 +587,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -663,20 +816,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +854,185 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0252C723-AFA7-F643-90E9-983B7EFD8A7E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,574 +1049,706 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E4276BB6-0AD3-4B49-9743-07C298394168}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{C1861510-2D65-0D43-A2AC-CEC2ECBF2207}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{CECA61C0-2B49-334B-956F-41603C6E9EC2}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{9B56F016-ECD6-2F40-8710-1578BFB34247}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{20C2A461-B2EE-6242-B9FF-FD1B9151FD99}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{0274FBD7-7784-FB47-A179-6E0D93F7285D}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{CD0C2E7A-E433-EB4D-A22D-81D4B07D9435}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{B0045FC8-4C19-B348-8C6D-B3ECFB981CBB}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{88DBDE71-169B-4A46-AE89-578F5439B82B}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{32A5616E-5C84-504C-9F1F-69CC3E1CE318}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{3E70967C-0B24-EE40-8374-EAC1536754CB}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{91224362-6601-2240-A1DB-951CA5E63580}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{FCBD0B12-B5A2-4A46-A662-EA64AD490026}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{1A5A1895-35C9-BC47-94E5-914184D66CCF}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{51FD3BE2-F78B-F44B-848F-3BAD17A96828}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{EB242925-12EE-674B-8C8F-FA80C2E51A4F}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{543DFFA8-CC6F-8A4B-9BCC-14026F37CE4E}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{C59E5273-008E-D44D-B9C2-B8D9EE8F843D}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{D430AB87-FC6E-4C4F-AB0F-695B3C340498}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{2E6AD3A5-530A-1F43-810F-262CA0DD9665}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{D9A60427-CA70-6A45-987B-20C4494FB9B1}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{FAC2A5C7-3133-2C4C-9FAB-3E7EC88B55B0}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{23E16F7A-49AF-0E43-9002-54E61A4AA26B}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{5990DE01-1D9D-794F-9AE8-EF55FFFDE959}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{F877A7AD-FA6D-234A-A85E-FEC2E98A0AA2}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{16128D33-022D-5740-8D75-63DBCA71FB23}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{40D4B01A-CB47-C64A-B4A3-05CAA9FA655E}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{FB956AC4-7602-B942-B4D8-E011E00FE9A5}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{5222650C-A04C-834A-AD48-EBF61B8E26D5}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{0CF9D450-B58D-9444-A112-5CFBA3FE7998}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{2643A95F-15F3-7249-8B77-1AAF46FAEE5D}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{2817C7FB-9484-BB48-908A-031EB661439B}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{7155DB6E-C0CD-B44C-A6B7-C2AC5E50EE94}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{32B59655-B033-9E40-8EDB-DEDA8E32E2A1}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>